--- a/output/SPX_22345384000117.xlsx
+++ b/output/SPX_22345384000117.xlsx
@@ -1098,10 +1098,10 @@
         <v>44165</v>
       </c>
       <c r="B65">
-        <v>0.7470327999999999</v>
+        <v>0.7467146</v>
       </c>
       <c r="C65">
-        <v>0.002011556354549748</v>
+        <v>0.001829052581734381</v>
       </c>
     </row>
   </sheetData>

--- a/output/SPX_22345384000117.xlsx
+++ b/output/SPX_22345384000117.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SPX NIMITZ ESTRUTURADO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,722 +383,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42247</v>
       </c>
       <c r="B2">
-        <v>0.004153400000000085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42277</v>
       </c>
       <c r="B3">
-        <v>0.01900079999999993</v>
-      </c>
-      <c r="C3">
         <v>0.01478598787794749</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42308</v>
       </c>
       <c r="B4">
-        <v>0.02312340000000002</v>
-      </c>
-      <c r="C4">
         <v>0.004045727932696419</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42338</v>
       </c>
       <c r="B5">
-        <v>0.04392379999999996</v>
-      </c>
-      <c r="C5">
         <v>0.02033029446887835</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42369</v>
       </c>
       <c r="B6">
-        <v>0.05898929999999991</v>
-      </c>
-      <c r="C6">
         <v>0.01443160889712436</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42400</v>
       </c>
       <c r="B7">
-        <v>0.09291730000000009</v>
-      </c>
-      <c r="C7">
         <v>0.03203809519133016</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42429</v>
       </c>
       <c r="B8">
-        <v>0.1006233999999999</v>
-      </c>
-      <c r="C8">
         <v>0.007050945208754378</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42460</v>
       </c>
       <c r="B9">
-        <v>0.06438480000000002</v>
-      </c>
-      <c r="C9">
         <v>-0.03292552202688026</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42490</v>
       </c>
       <c r="B10">
-        <v>0.1012090000000001</v>
-      </c>
-      <c r="C10">
         <v>0.03459669848723901</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42521</v>
       </c>
       <c r="B11">
-        <v>0.1212253999999999</v>
-      </c>
-      <c r="C11">
         <v>0.01817674937273472</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42551</v>
       </c>
       <c r="B12">
-        <v>0.1200231</v>
-      </c>
-      <c r="C12">
         <v>-0.00107230892200616</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42582</v>
       </c>
       <c r="B13">
-        <v>0.1239047</v>
-      </c>
-      <c r="C13">
         <v>0.00346564280683137</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42613</v>
       </c>
       <c r="B14">
-        <v>0.1516142</v>
-      </c>
-      <c r="C14">
         <v>0.02465467045382064</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42643</v>
       </c>
       <c r="B15">
-        <v>0.1775618999999999</v>
-      </c>
-      <c r="C15">
         <v>0.02253159087479117</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42674</v>
       </c>
       <c r="B16">
-        <v>0.2102625</v>
-      </c>
-      <c r="C16">
         <v>0.02776975036301699</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42704</v>
       </c>
       <c r="B17">
-        <v>0.2341877000000001</v>
-      </c>
-      <c r="C17">
         <v>0.01976860391857138</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42735</v>
       </c>
       <c r="B18">
-        <v>0.2585968999999999</v>
-      </c>
-      <c r="C18">
         <v>0.0197775427513982</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42766</v>
       </c>
       <c r="B19">
-        <v>0.2923587000000001</v>
-      </c>
-      <c r="C19">
         <v>0.02682495086393444</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42794</v>
       </c>
       <c r="B20">
-        <v>0.3048411</v>
-      </c>
-      <c r="C20">
         <v>0.009658618772017347</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42825</v>
       </c>
       <c r="B21">
-        <v>0.3295726000000001</v>
-      </c>
-      <c r="C21">
         <v>0.01895364883892769</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42855</v>
       </c>
       <c r="B22">
-        <v>0.327698</v>
-      </c>
-      <c r="C22">
         <v>-0.001409926768948244</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42886</v>
       </c>
       <c r="B23">
-        <v>0.3409453</v>
-      </c>
-      <c r="C23">
         <v>0.009977645518785216</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42916</v>
       </c>
       <c r="B24">
-        <v>0.358684</v>
-      </c>
-      <c r="C24">
         <v>0.01322850380250418</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42947</v>
       </c>
       <c r="B25">
-        <v>0.3972503000000001</v>
-      </c>
-      <c r="C25">
         <v>0.02838504023010513</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42978</v>
       </c>
       <c r="B26">
-        <v>0.4032142999999999</v>
-      </c>
-      <c r="C26">
         <v>0.004268383409901544</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43008</v>
       </c>
       <c r="B27">
-        <v>0.4361537</v>
-      </c>
-      <c r="C27">
         <v>0.02347424766124462</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43039</v>
       </c>
       <c r="B28">
-        <v>0.4312849000000001</v>
-      </c>
-      <c r="C28">
         <v>-0.00339016638678713</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43069</v>
       </c>
       <c r="B29">
-        <v>0.4463245</v>
-      </c>
-      <c r="C29">
         <v>0.01050776124306196</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43100</v>
       </c>
       <c r="B30">
-        <v>0.4654290999999999</v>
-      </c>
-      <c r="C30">
         <v>0.01320906891918083</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43131</v>
       </c>
       <c r="B31">
-        <v>0.5259548999999999</v>
-      </c>
-      <c r="C31">
         <v>0.04130244172167719</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43159</v>
       </c>
       <c r="B32">
-        <v>0.5289185000000001</v>
-      </c>
-      <c r="C32">
         <v>0.001942128171678048</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43190</v>
       </c>
       <c r="B33">
-        <v>0.5347124000000001</v>
-      </c>
-      <c r="C33">
         <v>0.003789541430756493</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43220</v>
       </c>
       <c r="B34">
-        <v>0.5516618</v>
-      </c>
-      <c r="C34">
         <v>0.01104402362292767</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43251</v>
       </c>
       <c r="B35">
-        <v>0.5422815000000001</v>
-      </c>
-      <c r="C35">
         <v>-0.006045325083081865</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43281</v>
       </c>
       <c r="B36">
-        <v>0.5771520999999999</v>
-      </c>
-      <c r="C36">
         <v>0.02260975055461656</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43312</v>
       </c>
       <c r="B37">
-        <v>0.5709275</v>
-      </c>
-      <c r="C37">
         <v>-0.003946734116512918</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43343</v>
       </c>
       <c r="B38">
-        <v>0.6041869</v>
-      </c>
-      <c r="C38">
         <v>0.02117182365195069</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43373</v>
       </c>
       <c r="B39">
-        <v>0.6202357999999999</v>
-      </c>
-      <c r="C39">
         <v>0.01000438290575745</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43404</v>
       </c>
       <c r="B40">
-        <v>0.6102208</v>
-      </c>
-      <c r="C40">
         <v>-0.006181199057569198</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43434</v>
       </c>
       <c r="B41">
-        <v>0.5684467</v>
-      </c>
-      <c r="C41">
         <v>-0.0259430880535142</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43465</v>
       </c>
       <c r="B42">
-        <v>0.5189419</v>
-      </c>
-      <c r="C42">
         <v>-0.03156294695892436</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43496</v>
       </c>
       <c r="B43">
-        <v>0.5347383000000001</v>
-      </c>
-      <c r="C43">
         <v>0.01039960777959981</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43524</v>
       </c>
       <c r="B44">
-        <v>0.5384971999999999</v>
-      </c>
-      <c r="C44">
         <v>0.002449212351056662</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43555</v>
       </c>
       <c r="B45">
-        <v>0.5493542</v>
-      </c>
-      <c r="C45">
         <v>0.007056886421372921</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43585</v>
       </c>
       <c r="B46">
-        <v>0.5490211</v>
-      </c>
-      <c r="C46">
         <v>-0.0002149928015169333</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43616</v>
       </c>
       <c r="B47">
-        <v>0.5729858999999999</v>
-      </c>
-      <c r="C47">
         <v>0.01547093193243132</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43646</v>
       </c>
       <c r="B48">
-        <v>0.595572</v>
-      </c>
-      <c r="C48">
         <v>0.0143587428215346</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43677</v>
       </c>
       <c r="B49">
-        <v>0.6061388000000001</v>
-      </c>
-      <c r="C49">
         <v>0.006622577984572331</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43708</v>
       </c>
       <c r="B50">
-        <v>0.6293218</v>
-      </c>
-      <c r="C50">
         <v>0.01443399536827084</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43738</v>
       </c>
       <c r="B51">
-        <v>0.6230195000000001</v>
-      </c>
-      <c r="C51">
         <v>-0.003868051111818427</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43769</v>
       </c>
       <c r="B52">
-        <v>0.6352325000000001</v>
-      </c>
-      <c r="C52">
         <v>0.007524863379645197</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43799</v>
       </c>
       <c r="B53">
-        <v>0.6243791999999999</v>
-      </c>
-      <c r="C53">
         <v>-0.006637160159182365</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43830</v>
       </c>
       <c r="B54">
-        <v>0.6346707</v>
-      </c>
-      <c r="C54">
         <v>0.006335651182925783</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43861</v>
       </c>
       <c r="B55">
-        <v>0.6369191999999999</v>
-      </c>
-      <c r="C55">
         <v>0.001375506394039938</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43890</v>
       </c>
       <c r="B56">
-        <v>0.6555754</v>
-      </c>
-      <c r="C56">
         <v>0.01139714165488437</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43921</v>
       </c>
       <c r="B57">
-        <v>0.6588179000000001</v>
-      </c>
-      <c r="C57">
         <v>0.001958533570866061</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43951</v>
       </c>
       <c r="B58">
-        <v>0.6783356</v>
-      </c>
-      <c r="C58">
         <v>0.01176602929109949</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43982</v>
       </c>
       <c r="B59">
-        <v>0.6628879000000001</v>
-      </c>
-      <c r="C59">
         <v>-0.009204178234674898</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>44012</v>
       </c>
       <c r="B60">
-        <v>0.6819303000000001</v>
-      </c>
-      <c r="C60">
         <v>0.01145140330866568</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>44043</v>
       </c>
       <c r="B61">
-        <v>0.6969056</v>
-      </c>
-      <c r="C61">
         <v>0.008903638872550079</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>44074</v>
       </c>
       <c r="B62">
-        <v>0.7209345</v>
-      </c>
-      <c r="C62">
         <v>0.01416042235938164</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44104</v>
       </c>
       <c r="B63">
-        <v>0.7187956</v>
-      </c>
-      <c r="C63">
         <v>-0.001242871242339572</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44135</v>
       </c>
       <c r="B64">
-        <v>0.7435255999999999</v>
-      </c>
-      <c r="C64">
         <v>0.01438798191012358</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44165</v>
       </c>
       <c r="B65">
-        <v>0.7467146</v>
-      </c>
-      <c r="C65">
-        <v>0.001829052581734381</v>
+        <v>-0.005071448334340478</v>
       </c>
     </row>
   </sheetData>
